--- a/ModbusKey通讯接口数据表.xlsx
+++ b/ModbusKey通讯接口数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\Rehand6600\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\新建文件夹\R9_407_V1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2AF73-5999-40AE-BA2F-708EA6A49660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39AD51-CD8C-4B38-9036-8919B1C3ECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1110" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="640" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,151 +39,152 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>按键1状态（站立）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ：触发 0：未触发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0002</t>
+  </si>
+  <si>
+    <t>按键2状态（坐下）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0003</t>
+  </si>
+  <si>
+    <t>按键3状态（垂直举升）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0004</t>
+  </si>
+  <si>
+    <t>按键4状态（垂直下降）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0005</t>
+  </si>
+  <si>
+    <t>按键5状态（靠背前倾）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0006</t>
+  </si>
+  <si>
+    <t>按键6状态（靠背后倾）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0007</t>
+  </si>
+  <si>
+    <t>按键7状态（整体前倾）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0008</t>
+  </si>
+  <si>
+    <t>按键8状态（整体后倾）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X0009</t>
+  </si>
+  <si>
+    <t>按键9状态（腿托上旋）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 ：触发 0：触发</t>
+  </si>
+  <si>
+    <t>0X000A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键10状态（腿托下旋）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ：触发 0：触发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0091</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>站立/坐下指示灯指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：触发绿灯（正常） 1:触发黄灯（警告）2：触发红灯（报错）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0092</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>举升/下降指示灯指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0093</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠背前/后倾指示灯指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0094</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体前/后倾指示灯指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X0095</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿托前/后倾指示灯指令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0X0001</t>
-  </si>
-  <si>
-    <t>按键1状态（站立）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 ：触发 0：未触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0002</t>
-  </si>
-  <si>
-    <t>按键2状态（坐下）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0003</t>
-  </si>
-  <si>
-    <t>按键3状态（垂直举升）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0004</t>
-  </si>
-  <si>
-    <t>按键4状态（垂直下降）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0005</t>
-  </si>
-  <si>
-    <t>按键5状态（靠背前倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0006</t>
-  </si>
-  <si>
-    <t>按键6状态（靠背后倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0007</t>
-  </si>
-  <si>
-    <t>按键7状态（整体前倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0008</t>
-  </si>
-  <si>
-    <t>按键8状态（整体后倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X0009</t>
-  </si>
-  <si>
-    <t>按键9状态（腿托上旋）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 ：触发 0：触发</t>
-  </si>
-  <si>
-    <t>0X000A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键10状态（腿托下旋）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 ：触发 0：触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0091</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>站立/坐下指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：触发绿灯（正常） 1:触发黄灯（警告）2：触发红灯（报错）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0092</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>举升/下降指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0093</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠背前/后倾指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0094</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体前/后倾指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0095</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>腿托前/后倾指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,7 +530,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,112 +552,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -666,13 +667,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -687,13 +688,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,13 +709,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,13 +730,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,13 +751,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ModbusKey通讯接口数据表.xlsx
+++ b/ModbusKey通讯接口数据表.xlsx
@@ -1,189 +1,160 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\新建文件夹\R9_407_V1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60232\Desktop\code\R9_407_V1.1\R9_407_V1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39AD51-CD8C-4B38-9036-8919B1C3ECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B622FCCA-72DD-4F71-8996-009C803047C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="640" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="760" windowWidth="19190" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
-  <si>
-    <t>0X0000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>从机ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X88</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>按键1状态（站立）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1 ：触发 0：未触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0002</t>
   </si>
   <si>
     <t>按键2状态（坐下）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0003</t>
-  </si>
-  <si>
     <t>按键3状态（垂直举升）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0004</t>
-  </si>
-  <si>
     <t>按键4状态（垂直下降）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0005</t>
-  </si>
-  <si>
     <t>按键5状态（靠背前倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0006</t>
-  </si>
-  <si>
     <t>按键6状态（靠背后倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0007</t>
-  </si>
-  <si>
     <t>按键7状态（整体前倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>7 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0008</t>
-  </si>
-  <si>
     <t>按键8状态（整体后倾）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X0009</t>
-  </si>
-  <si>
     <t>按键9状态（腿托上旋）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>9 ：触发 0：触发</t>
   </si>
   <si>
-    <t>0X000A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>按键10状态（腿托下旋）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>10 ：触发 0：触发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0091</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>站立/坐下指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0：触发绿灯（正常） 1:触发黄灯（警告）2：触发红灯（报错）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0092</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>举升/下降指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0093</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>靠背前/后倾指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0094</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整体前/后倾指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0095</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>腿托前/后倾指示灯指令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X0001</t>
+  </si>
+  <si>
+    <t>CanLedCmdbufReceive[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanLedCmdbufReceive[0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主机ID </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanKeybufSendSend[0]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：触发绿灯（正常） 1:触发黄灯（警告）2：触发红灯（报错）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanLedCmdbufReceive[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanLedCmdbufReceive[3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanLedCmdbufReceive[4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanLedCmdbufReceive[5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,18 +162,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -213,10 +183,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,17 +213,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -307,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -342,7 +397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -517,11 +572,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -529,238 +579,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
     <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="57.125" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
